--- a/biology/Botanique/Adonis_de_printemps/Adonis_de_printemps.xlsx
+++ b/biology/Botanique/Adonis_de_printemps/Adonis_de_printemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Adonis de printemps (Adonis vernalis) est une espèce de plante à fleurs de la famille des Ranunculaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adonis vernalis est une plante herbacée vivace.
 Elle a une souche épaisse et noirâtre. Sa tige, de 10 à 30 cm, est glabre ou presque. Les feuilles sont découpées en lanières fines et linéaires ; les inférieures sont réduites à des écailles.
@@ -544,12 +558,14 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adonis de printemps est une plante des prairies et pelouses sèches pâturées aux sols basiques. En Europe centrale et occidentale, il pousse surtout sur les pelouses calcaires et les pentes rocailleuses. En Europe de l'Est en revanche, il est caractéristique des sols de tchernoziom de la steppe, mais il prospère tout autant sur les steppes calcaires.
 Son aire de répartition en Eurasie est très vaste. Ses origines se trouvent surtout dans la Steppe eurasienne depuis la plaine de Pannonie jusqu'au sud de la Sibérie et le nord du Kazakhstan, en passant par la steppe pontique, où il peut être très abondant en imprimant fortement sa marque sur le paysage au printemps. Dans la steppe on peut le confondre avec Adonis volgensis, une espèce proche qui partage souvent son habitat.
-À la suite des défrichements du Néolithique et l'utilisation de vastes terres comme prairies pastorales pour les troupeaux de moutons, Adonis vernalis a pu se répandre dans de nombreuses régions d'Europe centrale et occidentale, où il était auparavant absent, en trouvant de nouveaux biotopes favorables créés par l'homme et ses troupeaux, notamment les pelouses calcaires, comme c'est le cas pour beaucoup d'autres plantes d'origine soit méditerranéenne ou soit des steppes d'Europe de l'Est[1]. Ensuite avec l'abandon progressif du pastoralisme en plaine, ayant conduit au reboisement ou à la mise en culture de nombreuses terres calcaires, l'adonis a disparu de beaucoup d'endroits, et ne subsiste plus dans certaines régions qu'à l'état de relique. En Europe de l'Ouest la subsistance de cette plante dépend essentiellement de la manière dont l'homme utilise le territoire, à l'instar des plantes messicoles.
-En France, il est presque exclusivement présent dans la région des Grands Causses et très ponctuellement ailleurs dans de très rares stations, en particulier en Alsace dans la Forêt du Hardtwald[2] au Sud-Ouest d'Heiteren. En Suisse, on le trouve en Valais entre les villages de Charrat et Saxon et à Tourtemagne.
+À la suite des défrichements du Néolithique et l'utilisation de vastes terres comme prairies pastorales pour les troupeaux de moutons, Adonis vernalis a pu se répandre dans de nombreuses régions d'Europe centrale et occidentale, où il était auparavant absent, en trouvant de nouveaux biotopes favorables créés par l'homme et ses troupeaux, notamment les pelouses calcaires, comme c'est le cas pour beaucoup d'autres plantes d'origine soit méditerranéenne ou soit des steppes d'Europe de l'Est. Ensuite avec l'abandon progressif du pastoralisme en plaine, ayant conduit au reboisement ou à la mise en culture de nombreuses terres calcaires, l'adonis a disparu de beaucoup d'endroits, et ne subsiste plus dans certaines régions qu'à l'état de relique. En Europe de l'Ouest la subsistance de cette plante dépend essentiellement de la manière dont l'homme utilise le territoire, à l'instar des plantes messicoles.
+En France, il est presque exclusivement présent dans la région des Grands Causses et très ponctuellement ailleurs dans de très rares stations, en particulier en Alsace dans la Forêt du Hardtwald au Sud-Ouest d'Heiteren. En Suisse, on le trouve en Valais entre les villages de Charrat et Saxon et à Tourtemagne.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est très toxique.
-Elle contient un alcaloïde, l'adonidine, dont la dose létale est de 0,6 g pour un homme[réf. nécessaire]. Elle a été utilisée pour ses hétérosides cardiotoniques[3]. Il sert de remède homéopathique, y compris à des fins vétérinaires[4].
+Elle contient un alcaloïde, l'adonidine, dont la dose létale est de 0,6 g pour un homme[réf. nécessaire]. Elle a été utilisée pour ses hétérosides cardiotoniques. Il sert de remède homéopathique, y compris à des fins vétérinaires.
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adonis vernalis est une espèce protégée, inscrite en annexe II de la Convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES selon l'acronyme anglo-saxon) depuis 2000. En effet, il fait l'objet de commerce international en raison de son usage médicinal, au risque d'entraîner sa surexploitation et le recul de l'espèce[5].
-En France, Adonis vernalis est inscrite sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain, en annexe II [6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adonis vernalis est une espèce protégée, inscrite en annexe II de la Convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES selon l'acronyme anglo-saxon) depuis 2000. En effet, il fait l'objet de commerce international en raison de son usage médicinal, au risque d'entraîner sa surexploitation et le recul de l'espèce.
+En France, Adonis vernalis est inscrite sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain, en annexe II 
 </t>
         </is>
       </c>
@@ -643,6 +663,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
